--- a/src/main/resources/report/Tra_Tamplate.xlsx
+++ b/src/main/resources/report/Tra_Tamplate.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\JAVA\GIT\QLVK\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\QLVK\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60629229-4B61-4E61-9BD2-AA175F3B296F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7613D16-4BB9-47FE-8A2A-5C5D718B0CD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$48</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,66 +210,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -297,26 +244,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,7 +316,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C031F3AB-D72D-4CFE-986F-AD631B488F3B}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -367,14 +336,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -393,8 +362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1257300" y="419100"/>
-          <a:ext cx="1066800" cy="0"/>
+          <a:off x="1085849" y="419100"/>
+          <a:ext cx="1314451" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -421,16 +390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -447,8 +416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4171950" y="419099"/>
-          <a:ext cx="857250" cy="0"/>
+          <a:off x="5019675" y="438149"/>
+          <a:ext cx="1200150" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -772,698 +741,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F892445-4F9B-4768-B585-A72F0A93060B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="7.42578125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="16" width="7.42578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="3" t="s">
+      <c r="D4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18" t="s">
+      <c r="C23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="18" t="s">
+      <c r="D23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18" t="s">
+      <c r="E23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="18" t="s">
+      <c r="F23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="19"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
     </row>
     <row r="36" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
     </row>
     <row r="37" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
     </row>
     <row r="41" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A40:P40"/>
-    <mergeCell ref="A25:P26"/>
-    <mergeCell ref="A28:H28"/>
+  <mergeCells count="15">
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="I28:P28"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:P32"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A7:P8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A25:F26"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A7:F8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
